--- a/Examples/Ex4 - ProtoMPEX_FluxMapping/Ex4 -Updated/CoilSetup_ProtoMPEX.xlsx
+++ b/Examples/Ex4 - ProtoMPEX_FluxMapping/Ex4 -Updated/CoilSetup_ProtoMPEX.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nfc\Documents\MATLAB\MyRepos\MagneticFieldCode_Axisymmetric\Examples\Ex4 - ProtoMPEX_FluxMapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nfc\OneDrive - Oak Ridge National Laboratory\Projects\LDRD_Project\MatlabFiles\MagneticField_profiles\MagneticFieldCode_Axisymmetric\Examples\Ex4 - ProtoMPEX_FluxMapping\Ex4 -Updated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C71F91C-BBC9-4664-8398-363576F7CC74}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2698DBC5-F03C-488B-9510-C19F9FE9AE12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="5" xr2:uid="{79EB1445-7373-446A-B7BC-60A0A49526E2}"/>
+    <workbookView xWindow="-28920" yWindow="-1875" windowWidth="29040" windowHeight="17640" activeTab="4" xr2:uid="{79EB1445-7373-446A-B7BC-60A0A49526E2}"/>
   </bookViews>
   <sheets>
     <sheet name="conf_A" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2272,8 +2275,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB766082-A658-4D24-BBC5-DC2EA28B7B14}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2728,8 +2731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C548EB1D-E9E6-4DD2-A63D-6AD4B7A9EEA6}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
